--- a/biology/Histoire de la zoologie et de la botanique/Izyaslav_Moiseyevich_Kerzhner/Izyaslav_Moiseyevich_Kerzhner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Izyaslav_Moiseyevich_Kerzhner/Izyaslav_Moiseyevich_Kerzhner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Izyaslav Moiseyevich Kerzhner, né le 6 mars 1936 à Dnipropetrovsk (Ukraine) et mort le 29 mai 2008 à Saint-Pétersbourg (Russie) est un entomologiste russe, hétéroptériste (spécialiste des punaises), professeur et directeur de recherche à l'Institut zoologique de l'Académie russe des Sciences, et membre de la Commission internationale de nomenclature zoologique.
 </t>
@@ -511,14 +523,16 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Izyaslav M. Kerzhner est entré en 1953 à l'Université de Chișinău (Moldavie), mais le département d'entomologie a fermé peu de temps après. Il décide de déménager à Léningrad, et s'inscrit comme étudiant au département d'entomologie de l'Université d'État de Léningrad, et suit les cours du professeur A.S. Danilevsky, responsable du Département, qui lui suggère d'étudier la systématique des Hémiptères, qui restera son centre d'intérêt toute sa vie. Après avoir obtenu son diplôme, il est engagé par l'Institut zoologique, et travaille sous la direction du professeur A. N. Kirichenko. En 1965, il défend sa thèse sur les Nabidae d'URSS. Il est devenu un expert en histoire de l'entomologie et de la zoologie, particulièrement intéressé par l'histoire de la recherche sur le terrain par des voyageurs et collecteurs russes. Il était également féru de bibliographie, souvent appelé pour résoudre des problèmes bibliographiques[1],[2].
-À partir de 1996, il est un membre de la Commission internationale de nomenclature zoologique, où il a résolu de nombreux problèmes nomenclaturaux, pas uniquement concernant les Hétéroptères. Il a été le traducteur en russe de deux éditions du Code international de nomenclature zoologique[1].
-Il avait développé d'importantes connaissances linguistiques, connaissant, en plus de l'ukrainien et du russe, le latin, le grec, l'anglais, l'allemand et le français, et il pouvait lire l'italien, l'espagnol et le chinois basique[1].
-Son troisième champ d'activité a été son travail éditorial. Il a notamment coordonné la publication des onze volumes des Insectes de Mongolie. Il a été fondateur en 1992 et rédacteur de chef de la revue Zoosystematica Rossica[3].
-Izyaslav M. Kerzhner a également été un habile collecteur d'insectes, et a participé à de nombreuses expéditions à travers le Kazakhstan (1957, 1960, 1962, 1966, 1978, 1987), en Transbaïkalie (1962), en Extrême-Orient (1959, 1963, 1982), à Sakhaline et aux Kouriles (1973), au Kamtchatka (1985), dans l'Altaï et à Touva (1964), en basse Volga (1961), en Ouzbékistan (1965, 1966), au Kirghizstan (1966, 1972), au Tadjikistan (1972), en Mongolie (1967, 1969-1971, 1976, 1980), en Bulgarie (1972), à Cuba (1986), au Mexique (1989), en Corée du Sud (1993) et en Israël (1999), de même qu'aux États-Unis[4].
-Il a été membre du Conseil Scientifique et de Comité de la Bibliothèque de l'Institut zoologique de l'Académie russe des Sciences, du Conseil et du présidium, de la Société entomologique russe, de la Société internationale des Hémiptéristes, membre honoraires des Sociétés entomologiques russes et hongroises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Izyaslav M. Kerzhner est entré en 1953 à l'Université de Chișinău (Moldavie), mais le département d'entomologie a fermé peu de temps après. Il décide de déménager à Léningrad, et s'inscrit comme étudiant au département d'entomologie de l'Université d'État de Léningrad, et suit les cours du professeur A.S. Danilevsky, responsable du Département, qui lui suggère d'étudier la systématique des Hémiptères, qui restera son centre d'intérêt toute sa vie. Après avoir obtenu son diplôme, il est engagé par l'Institut zoologique, et travaille sous la direction du professeur A. N. Kirichenko. En 1965, il défend sa thèse sur les Nabidae d'URSS. Il est devenu un expert en histoire de l'entomologie et de la zoologie, particulièrement intéressé par l'histoire de la recherche sur le terrain par des voyageurs et collecteurs russes. Il était également féru de bibliographie, souvent appelé pour résoudre des problèmes bibliographiques,.
+À partir de 1996, il est un membre de la Commission internationale de nomenclature zoologique, où il a résolu de nombreux problèmes nomenclaturaux, pas uniquement concernant les Hétéroptères. Il a été le traducteur en russe de deux éditions du Code international de nomenclature zoologique.
+Il avait développé d'importantes connaissances linguistiques, connaissant, en plus de l'ukrainien et du russe, le latin, le grec, l'anglais, l'allemand et le français, et il pouvait lire l'italien, l'espagnol et le chinois basique.
+Son troisième champ d'activité a été son travail éditorial. Il a notamment coordonné la publication des onze volumes des Insectes de Mongolie. Il a été fondateur en 1992 et rédacteur de chef de la revue Zoosystematica Rossica.
+Izyaslav M. Kerzhner a également été un habile collecteur d'insectes, et a participé à de nombreuses expéditions à travers le Kazakhstan (1957, 1960, 1962, 1966, 1978, 1987), en Transbaïkalie (1962), en Extrême-Orient (1959, 1963, 1982), à Sakhaline et aux Kouriles (1973), au Kamtchatka (1985), dans l'Altaï et à Touva (1964), en basse Volga (1961), en Ouzbékistan (1965, 1966), au Kirghizstan (1966, 1972), au Tadjikistan (1972), en Mongolie (1967, 1969-1971, 1976, 1980), en Bulgarie (1972), à Cuba (1986), au Mexique (1989), en Corée du Sud (1993) et en Israël (1999), de même qu'aux États-Unis.
+Il a été membre du Conseil Scientifique et de Comité de la Bibliothèque de l'Institut zoologique de l'Académie russe des Sciences, du Conseil et du présidium, de la Société entomologique russe, de la Société internationale des Hémiptéristes, membre honoraires des Sociétés entomologiques russes et hongroises.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Hétéroptériste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En tant qu'hétéroptériste, I. M. Kerzhner a fortement contribué à améliorer la connaissance dans les familles des Miridae, des Pentatomidae, des Lygaeidae, des Nabidae ainsi que dans d'autres familles. Il a notamment étudié la faune de l'Est de la Russie, de la Mongolie et des régions adjacentes[1].
-Il a décrit 33 nouveaux genres, 10 nouveaux sous-genres, 358 espèces et 29 sous-espèces[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant qu'hétéroptériste, I. M. Kerzhner a fortement contribué à améliorer la connaissance dans les familles des Miridae, des Pentatomidae, des Lygaeidae, des Nabidae ainsi que dans d'autres familles. Il a notamment étudié la faune de l'Est de la Russie, de la Mongolie et des régions adjacentes.
+Il a décrit 33 nouveaux genres, 10 nouveaux sous-genres, 358 espèces et 29 sous-espèces.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux genres (cinq) et espèces ont été nommées en son honneur. Selon BioLib                    (26 mars 2023)[6] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux genres (cinq) et espèces ont été nommées en son honneur. Selon BioLib                    (26 mars 2023) : 
 Kerzhnercryptes Brailovsky, 2002
 Kerzhnerella Richter, 1975
 Kerzhnerhygia Brailovsky, 1993
@@ -728,10 +746,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-I. M. Kerzhner a publié, entre 1958 et 2008, 278 publications[7],[8], dont les articles et ouvrages suivants[9],[10]:
+I. M. Kerzhner a publié, entre 1958 et 2008, 278 publications dont les articles et ouvrages suivants,:
 Publications d'Izyaslav M. Kerzhner
 Kerzhner, I. M. (1960). Order Hemiptera – bugs. In: Insects injurious to maize in the USSR: 160-171. Nauka, Leningrad. [en russe]
 Kerzhner, I. M. (1964). Materials on the synonymy of shieldbugs (Heteroptera Pentatomoidea) in the fauna of the USSR and adjacent countries. Entomologicheskoe Obozrenie 43: 363-367. [en russe]
@@ -753,19 +773,19 @@
 Kiritshenko, A. N. and I. M. Kerzhner (1976). Land bugs (Heteroptera) of the Mongoliaan People’s Republic, III. Nasekomye Mongolii 4: 87-114. Nauka, Leningrad. [en russe]
 Kerzhner, I. M. (1978). Bugs (Heteroptera) of Sakhalin and the Kuril Islands. Trudy Biologo-pochvennogo Instituta Dal’nevostostochnoe Otdelenie Akademiya Nauk SSSR (ns) 50: 31-57. [en russe]
 Kerzhner, I. M. (1981). New data on the fauna of land bugs (Heteroptera) of Sakhalin. Trudy Zoologicheskogo Instituta Akademiya Nauk SSSR 92: 8-10. [en russe]
-Kerzhner, I. M. &amp; E. V. Kanyukova (1982). Bugs (Heteroptera) from the northern and central Sakhalin. Trudy Zoologicheskogo Instituta Akademiya Nauk SSSR 105[1981]: 127-129. [en russe]
+Kerzhner, I. M. &amp; E. V. Kanyukova (1982). Bugs (Heteroptera) from the northern and central Sakhalin. Trudy Zoologicheskogo Instituta Akademiya Nauk SSSR 105: 127-129. [en russe]
 Kerzhner, I. M. &amp; E. V. Kanyukova (1983). Additions to the fauna of bugs (Heteroptera) of the Kuril Islands. Sistematika i ekologo-morfologicheskii obzor otdel’nykh otryadov nasekomykh Dal’nego Vostoka [Systematics and ecologo-morphological review of some insects orders from the Far East]: 37-38. Vladivostok. [en russe]
 Kerzhner, I. M. &amp; A. Jansson (1985). The type-specimens of Heteroptera described by V. Motschulsky. Annales Entomologici Fennici 51: 33-44.
 Kerzhner, I. M. &amp; Chr. Rieger (1985). Wanzen aus Iran (Insecta: Heteroptera). Senckenbergiana Biologica 66(1-3): 51-53.
-Kerzhner, I. M. (1988). Bugs (Heteroptera) of the Kamchatka Province. Taksonomiya nasekomykh Sibiri i Dal’nego Vostoka SSSR [Taxonomy of insects from Siberia and the Russian Far East] [1987]: 56-62. Nauka, Vladivostok.
-Kerzhner, I. M. (1988). New and little-known heteropterous insects (Heteroptera) from the Far East of the USSR [1987]: 1-83. Akademiya Nauk SSSR, Far East Centre, Vladivostok. [en russe]
+Kerzhner, I. M. (1988). Bugs (Heteroptera) of the Kamchatka Province. Taksonomiya nasekomykh Sibiri i Dal’nego Vostoka SSSR [Taxonomy of insects from Siberia and the Russian Far East] : 56-62. Nauka, Vladivostok.
+Kerzhner, I. M. (1988). New and little-known heteropterous insects (Heteroptera) from the Far East of the USSR : 1-83. Akademiya Nauk SSSR, Far East Centre, Vladivostok. [en russe]
 Kerzhner, I. M. (1993). Notes on synonymy and nomenclature of Palaearctic Heteroptera. Zoosystematica Rossica 2: 97-105.
 Lee, C. E., S. Miyamoto &amp; I. M. Kerzhner (1994). Additions and corrections to the list of Korean Heteroptera. Nature and Life 24: 1-34.
 Lee, C. E., I. M. Kerzhner &amp; S. Miyamoto (1995). Pentatoma parametallifera Zheng et Li (Heteroptera, Pentatomidae) from South Korea, with description of the male genitalia. Japanese Journal of Entomology 63: 877-880.
 Kerzhner, I. M. &amp; Yu. M. Marusik (1996). Heteroptera (Insecta) of the Kurile Islands: a revised check-list and new data on Middle Kuriles. Russian Entomological Journal 5(1-4): 21-29.
 Berger, H., E. Heiss, and I. M. Kerzhner (2001). Removal of homonymy between Urostylidae Dallas, 1851 (Insecta, Heteroptera) and Urostylidae Bütschli, 1889 (Ciliophora, Hypotrichia). Annalen des Naturhistorischen Museums in Wien 103B: 301-302.
 Kerzhner, I. M. (2001). Two species of Heteroptera from the Far East new to the fauna of Russia (Lygaeidae, Pentatomidae). Zoosystematica Rossica 9: 24.
-Derzhansky, V. V., I. M. Kerzhner, &amp; L. P. Danilovich (2002). Holotypes and lectotypes of Palaearctic Pentatomoidea in the collection of the Zoological Institute, St. Petersburg (Heteroptera). Zoosystematica Rossica 10[2001]: 361-371.
+Derzhansky, V. V., I. M. Kerzhner, &amp; L. P. Danilovich (2002). Holotypes and lectotypes of Palaearctic Pentatomoidea in the collection of the Zoological Institute, St. Petersburg (Heteroptera). Zoosystematica Rossica 10: 361-371.
 Rider, D. A., L. Y. Zheng &amp; I. M. Kerzhner (2002). Checklist and nomenclatural notes on the Chinese Pentatomidae (Heteroptera). II. Pentatominae. Zoosystematica Rossica 11: 135-153. lire en ligne
 Kerzhner, I. M. (2003). Notes on synonymy, nomenclature and distribution of some Palaearctic Coreoidea and Pentatomoidea (Heteroptera). Zoosystematica Rossica 12: 93-98.
 Kerzhner, I. M. (2003). Type specimens of Coreoidea and Pentatomoidea described by F.A. Kolenati (Heteroptera). Zoosystematica Rossica 12: 101-107.
